--- a/Dados_Measure.xlsx
+++ b/Dados_Measure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ayt1group-my.sharepoint.com/personal/lucas_guedes_ayt1_health/Documents/Documentos/Cursos/Green Belt/1600775869517PPA-Servico/PPA-Servico/4. Base de Dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ayt1group-my.sharepoint.com/personal/lucas_guedes_ayt1_health/Documents/Documentos/Cursos/Green Belt/PPA-Servico/PPA-Servico/4. Base de Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{553AF5E5-5F78-4BB8-ACE5-78B2125B0805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03433E2B-4593-44B1-8636-45104A0E6440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-24" windowWidth="23256" windowHeight="13176" xr2:uid="{C4E50918-8034-4AC9-A64C-61A034D158A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE764296-4AA2-4929-A8E4-D362CB6F5DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Mês</t>
+    <t>Últimos 12 meses</t>
   </si>
   <si>
-    <t>NS atendimento</t>
+    <t>Unidade BH Centro</t>
+  </si>
+  <si>
+    <t>Unidade BH Pampulha</t>
+  </si>
+  <si>
+    <t>Unidade BH Belvedere</t>
+  </si>
+  <si>
+    <t>Unidade Betim</t>
+  </si>
+  <si>
+    <t>Unidade Contagem</t>
   </si>
 </sst>
 </file>
@@ -443,17 +455,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1DF1B8-F9C5-4FE6-8DB8-47C27B66432A}">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08DFF82-E62B-4D59-9DA2-D492404FDA2E}">
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -463,199 +479,261 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4">
-        <v>77.099999999999994</v>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="C2" s="4">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="D2" s="4">
+        <v>54.6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>84.6</v>
+      </c>
+      <c r="F2" s="4">
+        <v>54.7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4">
-        <v>76.2</v>
+        <v>79.2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>81.2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>55.2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>81.2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>49.3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4">
-        <v>75</v>
+        <v>74.8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>75.8</v>
+      </c>
+      <c r="D4" s="4">
+        <v>59.8</v>
+      </c>
+      <c r="E4" s="4">
+        <v>79.8</v>
+      </c>
+      <c r="F4" s="4">
+        <v>34.299999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4">
-        <v>74.7</v>
+        <v>78.3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>81.3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>64.3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>80.3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
-        <v>80.8</v>
+        <v>73.2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="D6" s="4">
+        <v>60.7</v>
+      </c>
+      <c r="E6" s="4">
+        <v>77.5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>30.2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4">
-        <v>79.8</v>
+        <v>77.8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="D7" s="4">
+        <v>57</v>
+      </c>
+      <c r="E7" s="4">
+        <v>76.3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4">
-        <v>70.7</v>
+        <v>76.099999999999994</v>
+      </c>
+      <c r="C8" s="4">
+        <v>83.1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>56.1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="F8" s="4">
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4">
-        <v>80.2</v>
+        <v>79.5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>80.5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>60.5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>80.5</v>
+      </c>
+      <c r="F9" s="4">
+        <v>51.5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4">
-        <v>71.2</v>
+        <v>75.099999999999994</v>
+      </c>
+      <c r="C10" s="4">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="D10" s="4">
+        <v>55.1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="F10" s="4">
+        <v>38.299999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4">
-        <v>77.7</v>
+        <v>72.7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>76.7</v>
+      </c>
+      <c r="D11" s="4">
+        <v>52.7</v>
+      </c>
+      <c r="E11" s="4">
+        <v>82.1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>30.1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="F12" s="5"/>
+        <v>77.2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>77.2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>52.2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>77.2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>52.3</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4">
-        <v>78.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>69.597784818619004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>69.226338065465754</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>64.799426269089565</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>68.328648271645804</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
-        <v>63.239287689011888</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
-        <v>64.017046945621303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4">
-        <v>66.093082605380886</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>70.525617097878907</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4">
-        <v>65.09547837969987</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4">
-        <v>62.722646104799139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4">
-        <v>67.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4">
-        <v>68</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C13" s="4">
+        <v>81</v>
+      </c>
+      <c r="D13" s="4">
+        <v>53</v>
+      </c>
+      <c r="E13" s="4">
+        <v>83</v>
+      </c>
+      <c r="F13" s="4">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
